--- a/Plan de trabajo - Final de semestre.xlsx
+++ b/Plan de trabajo - Final de semestre.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yessy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LEAFAR_10/Desktop/App Movil/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="TASKS" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Highly important, primary feature.  - Yessy</t>
   </si>
   <si>
-    <t>Make it be present in a normal state, when pressed the pause button will appear and the timer MUST start. - Rafael</t>
-  </si>
-  <si>
     <t>Important, lets the user feel part of the app expirience. - Rafael</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>OUR TASKS</t>
+  </si>
+  <si>
+    <t>Make it be present in a normal state, when pressed the play button will appear and the timer MUST start and the play replace with pause - Rafael</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
   </sheetPr>
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -599,7 +599,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="2" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>42886</v>
       </c>
       <c r="D5" s="5">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Plan de trabajo - Final de semestre.xlsx
+++ b/Plan de trabajo - Final de semestre.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LEAFAR_10/Desktop/App Movil/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yessy/Documents/App-Movil/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="TASKS" sheetId="1" r:id="rId1"/>
@@ -581,8 +581,8 @@
   </sheetPr>
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -659,11 +659,11 @@
         <v>42887</v>
       </c>
       <c r="E4" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>11</v>
@@ -722,11 +722,11 @@
         <v>42891</v>
       </c>
       <c r="E7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="11">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>13</v>
